--- a/templates/dataplant/2EXT03_Metabolites.xlsx
+++ b/templates/dataplant/2EXT03_Metabolites.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\SWATE_templates\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\Swate-templates_FORK\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D1E5CD-B442-48F9-8FA7-5260364B5A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD7CFD2-4224-4D68-AABF-5EEF10869438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="19110" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT03_Metabolites" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="113">
   <si>
     <t>Source Name</t>
   </si>
@@ -145,45 +145,18 @@
     <t>Parameter [Bio entity]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000012)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000012)</t>
-  </si>
-  <si>
     <t>Parameter [Biosource amount]</t>
   </si>
   <si>
     <t>Unit</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000013)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000013)</t>
-  </si>
-  <si>
     <t>Parameter [Extraction buffer]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000050)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000050)</t>
-  </si>
-  <si>
     <t>Parameter [Extraction buffer volume]</t>
   </si>
   <si>
-    <t>Unit (#2)</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:0000051)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000051)</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -265,9 +238,6 @@
     <t>annotationTableShortBat73</t>
   </si>
   <si>
-    <t>METABOLIGHTS</t>
-  </si>
-  <si>
     <t>Metabolites</t>
   </si>
   <si>
@@ -403,15 +373,6 @@
     <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000093</t>
   </si>
   <si>
-    <t>microgram</t>
-  </si>
-  <si>
-    <t>UO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000023</t>
-  </si>
-  <si>
     <t>ethanol</t>
   </si>
   <si>
@@ -421,12 +382,6 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_16236</t>
   </si>
   <si>
-    <t>microliter</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000101</t>
-  </si>
-  <si>
     <t>1.1.8</t>
   </si>
   <si>
@@ -443,6 +398,75 @@
   </si>
   <si>
     <t>Authors Role Term Source REF</t>
+  </si>
+  <si>
+    <t>MetaboLights</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000097</t>
+  </si>
+  <si>
+    <t>DPBO</t>
+  </si>
+  <si>
+    <t>Kuhl</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>extraction protocol</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000171</t>
+  </si>
+  <si>
+    <t>Metabolomics</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C49019</t>
+  </si>
+  <si>
+    <t>NCIT</t>
+  </si>
+  <si>
+    <t>Parameter [bio entity]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000012)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000012)</t>
+  </si>
+  <si>
+    <t>Parameter [biosource amount]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000013)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000013)</t>
+  </si>
+  <si>
+    <t>Parameter [extraction buffer]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000050)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000050)</t>
+  </si>
+  <si>
+    <t>Parameter [extraction buffer volume]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit </t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000051)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000051)</t>
   </si>
 </sst>
 </file>
@@ -453,7 +477,7 @@
     <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
     <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,14 +500,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,8 +532,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -608,15 +632,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -653,44 +687,239 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{0A4EB009-60C3-4315-A066-6A57075BD287}"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="9">
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -718,20 +947,20 @@
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{00A92329-DDFA-46A7-928C-FBA6906B18C6}" name="Source Name"/>
     <tableColumn id="3" xr3:uid="{86A17EF5-82A2-4869-960D-B69138E1DB4E}" name="Protocol REF"/>
-    <tableColumn id="4" xr3:uid="{AD3333A4-0ED6-4400-A032-9106D6476E9E}" name="Parameter [Bio entity]"/>
-    <tableColumn id="5" xr3:uid="{6BB60C84-401F-4600-BEC6-96F0D1A62ECF}" name="Term Source REF (NFDI4PSO:0000012)"/>
-    <tableColumn id="6" xr3:uid="{D58BFC2B-5AB7-47BB-8ED2-EB1E559DA27A}" name="Term Accession Number (NFDI4PSO:0000012)"/>
-    <tableColumn id="7" xr3:uid="{A3E44382-11F1-40DC-86F6-F5C11A1C7185}" name="Parameter [Biosource amount]" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{0F11D943-48A9-4BD6-B68E-BA371A5B1898}" name="Unit" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{07650B80-ED1F-4B4E-BBC0-8CD000DA3E66}" name="Term Source REF (NFDI4PSO:0000013)" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{EDF762B4-8549-4688-8F85-A46378F96FD0}" name="Term Accession Number (NFDI4PSO:0000013)" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{B1501E44-CEDC-421A-86B2-8F58808DFE65}" name="Parameter [Extraction buffer]" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{861C4811-A3FC-4286-B474-861117892A27}" name="Term Source REF (NFDI4PSO:0000050)" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{A7E7F69E-BC00-413F-9F8A-03662917FE38}" name="Term Accession Number (NFDI4PSO:0000050)" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{E687596C-FB0E-4A92-9FA1-7226DDC9DBA1}" name="Parameter [Extraction buffer volume]" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{4B4A90AF-35AC-49A7-8511-B089013D23C2}" name="Unit (#2)" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{A47E22FB-7AE7-4314-94D2-42EFA78B03B1}" name="Term Source REF (NFDI4PSO:0000051)" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{18E135AE-8FD6-4058-AB69-E19EA5D7AAD5}" name="Term Accession Number (NFDI4PSO:0000051)" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{62368A81-8957-4D11-A6AF-DA7F6AC249BF}" name="Parameter [bio entity]"/>
+    <tableColumn id="5" xr3:uid="{63399923-FE4F-42F2-A51C-309D91419527}" name="Term Source REF (DPBO:0000012)" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{E6F48207-67DD-4C33-8397-C375A05AEA8B}" name="Term Accession Number (DPBO:0000012)" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{AF2E8B81-E648-464B-8670-B22D8C7A525A}" name="Parameter [biosource amount]"/>
+    <tableColumn id="8" xr3:uid="{D282EE0A-F752-4A1F-89CF-92D8C53A4A50}" name="Unit"/>
+    <tableColumn id="9" xr3:uid="{66648871-5525-4AB1-8DF6-2A702BAA6402}" name="Term Source REF (DPBO:0000013)"/>
+    <tableColumn id="10" xr3:uid="{76C971A6-EC6D-4F77-A501-A381C42FA1E7}" name="Term Accession Number (DPBO:0000013)"/>
+    <tableColumn id="11" xr3:uid="{6A4FF471-7988-430A-BEA8-E3F3337B8BF2}" name="Parameter [extraction buffer]" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{1086CB7D-AED4-4F84-B5E6-E963BA4D48A0}" name="Term Source REF (DPBO:0000050)" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{A7B39309-8CD3-45C6-B982-E6C8799035FD}" name="Term Accession Number (DPBO:0000050)" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{99C9340D-61D1-4D06-B5B0-6094FCC9625B}" name="Parameter [extraction buffer volume]" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{1A859EB2-7F4A-4DDA-BCBE-15E7EFAFE0B7}" name="Unit " dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{BE75FDEA-A819-4D96-85FB-BF772F3E4034}" name="Term Source REF (DPBO:0000051)" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{B1FC478B-040F-48D5-9870-68A83C47B360}" name="Term Accession Number (DPBO:0000051)" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{F88CF3E4-EB0C-44AA-B0D2-F7B2D72C513B}" name="Sample Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1036,7 +1265,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="688" row="2">
+  <wetp:taskpane dockstate="right" visibility="0" width="608" row="3">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="617" row="2">
@@ -1069,27 +1298,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="40" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="42" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="37" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="40" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="40" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="33" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="40" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -1100,46 +1331,46 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="E1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="J1" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="K1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="L1" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="N1" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="O1" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="P1" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="Q1" t="s">
         <v>1</v>
@@ -1149,207 +1380,195 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M2" s="2">
-        <v>250</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>98</v>
+      <c r="C2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="23"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1000</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>98</v>
+      <c r="M3" s="24"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>98</v>
+      <c r="C4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="23"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>98</v>
+      <c r="C5" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" s="24"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>98</v>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="23"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1364,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AC0D4D-AF39-4214-9D6D-E617BEC2CBA4}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,191 +1595,219 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B10" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="9"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="B17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="9"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="8"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="8"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="8"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="8"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="8"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" s="8"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="11"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1591,285 +1838,285 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="L1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="13" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="C5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="D5" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="E5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="C6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="E6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="C7" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="E7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="C8" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="14" t="s">
+      <c r="E8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="I8" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="14" t="s">
+      <c r="K8" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>49</v>
+      <c r="L8" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/templates/dataplant/2EXT03_Metabolites.xlsx
+++ b/templates/dataplant/2EXT03_Metabolites.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\Swate-templates_FORK\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD7CFD2-4224-4D68-AABF-5EEF10869438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325E7C86-3AAE-4E23-B1A9-77351CB0AB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT03_Metabolites" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
-    <sheet name="METABOLIGHTS_METABOLOMICS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -128,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
   <si>
     <t>Source Name</t>
   </si>
@@ -142,21 +141,9 @@
     <t>Extraction</t>
   </si>
   <si>
-    <t>Parameter [Bio entity]</t>
-  </si>
-  <si>
-    <t>Parameter [Biosource amount]</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
-    <t>Parameter [Extraction buffer]</t>
-  </si>
-  <si>
-    <t>Parameter [Extraction buffer volume]</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -250,100 +237,7 @@
     <t/>
   </si>
   <si>
-    <t>TermSourceRef</t>
-  </si>
-  <si>
-    <t>Ontology</t>
-  </si>
-  <si>
-    <t>TAN</t>
-  </si>
-  <si>
-    <t>Content type (validation)</t>
-  </si>
-  <si>
-    <t>Notes during templating</t>
-  </si>
-  <si>
-    <t>Target term</t>
-  </si>
-  <si>
-    <t>Instruction</t>
-  </si>
-  <si>
-    <t>Requirement (m/o/n)</t>
-  </si>
-  <si>
-    <t>Value (cv/s/d)</t>
-  </si>
-  <si>
-    <t>Additional information</t>
-  </si>
-  <si>
-    <t>Review comments</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000012</t>
-  </si>
-  <si>
     <t>NFDI4PSO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000012</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000013</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000013</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000050</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000050</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000051</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000051</t>
-  </si>
-  <si>
-    <t>EXTRACTION - Extract Name</t>
-  </si>
-  <si>
-    <t>Leave blank if you don’t have one.</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>will always be metabolites</t>
-  </si>
-  <si>
-    <t>EXTRACTION - Post Extraction</t>
-  </si>
-  <si>
-    <t>This is  how the sample was extracted into a solvent prior to being injected into the analytical instrument of choice.</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>Only Post Extraction is given in the Metabolights table. After mapping, concatenate  all "EXTRACTION - Post Extraction" information in one cell.</t>
-  </si>
-  <si>
-    <t>This how the sample was extracted into a solvent prior to being injected into the analytical instrument of choice.</t>
-  </si>
-  <si>
-    <t>This is how the sample was extracted into a solvent prior to being injected into the analytical instrument of choice.</t>
   </si>
   <si>
     <t>RNA (Transcriptomics)</t>
@@ -539,7 +433,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -618,21 +512,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFD2D2D2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD2D2D2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD2D2D2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD2D2D2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -648,7 +527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -681,23 +560,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1299,7 +1170,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,46 +1202,46 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="I1" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="J1" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="K1" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="L1" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="M1" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="N1" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="O1" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="P1" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="Q1" t="s">
         <v>1</v>
@@ -1380,195 +1251,195 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19" t="s">
+      <c r="C2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>39</v>
+      <c r="K2" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="19"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="20" t="s">
-        <v>39</v>
+      <c r="C3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="20"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>39</v>
+      <c r="C4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="19"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" s="24"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>39</v>
+      <c r="C5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="20"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>39</v>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="L6" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" s="19" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="19"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1596,215 +1467,215 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" s="8"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B11" s="8"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B15" s="8"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1812,315 +1683,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/templates/dataplant/2EXT03_Metabolites.xlsx
+++ b/templates/dataplant/2EXT03_Metabolites.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\Swate-templates_FORK\templates\dataplant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325E7C86-3AAE-4E23-B1A9-77351CB0AB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88435CA-EE73-426A-BBBE-B518CCCA447E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT03_Metabolites" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,75 +50,75 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{FFB6A9D9-6327-46CB-8451-A82E3FA89093}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The unique identifier of this template. It will be auto generated.
-Reply:
+Antwort:
     id=66b8fd18-dc96-4b67-8708-7697afbff11f</t>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{8426B3A7-E40D-4750-912F-EBF8F08B21BD}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate template.</t>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{DC2F214F-76C7-4C23-8D9C-B3BE3B3D71D6}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The current version of this template in SemVer notation.</t>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{2EF14567-FF7E-4D22-B676-7925DE580B3E}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The description of this template. Use few sentences for succinctness.</t>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{498425FC-BCB7-403C-ACC9-98128B027B45}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{5C5365A1-59F1-4061-9423-A086112DAB70}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{A6A071FB-8124-48EF-9402-AC3E23A0DF76}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{410CDBCE-9FF9-42BA-A57B-522B8DC1818E}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{0D05386B-A236-4828-86FE-D4BE3F8A30DE}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The author(s) of this template.</t>
       </text>
     </comment>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="76">
   <si>
     <t>Source Name</t>
   </si>
@@ -292,12 +292,6 @@
   </si>
   <si>
     <t>Authors Role Term Source REF</t>
-  </si>
-  <si>
-    <t>MetaboLights</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_1000097</t>
   </si>
   <si>
     <t>DPBO</t>
@@ -571,8 +565,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{0A4EB009-60C3-4315-A066-6A57075BD287}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -1169,32 +1163,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="40" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="33" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="40" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="33" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="40" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5703125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5546875" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="33" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="40" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1202,52 +1196,52 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>66</v>
-      </c>
-      <c r="E1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" t="s">
-        <v>68</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>70</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>71</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>72</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>73</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>74</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>75</v>
-      </c>
-      <c r="O1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P1" t="s">
-        <v>77</v>
       </c>
       <c r="Q1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -1286,7 +1280,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -1325,7 +1319,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1364,7 +1358,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -1403,7 +1397,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1454,18 +1448,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AC0D4D-AF39-4214-9D6D-E617BEC2CBA4}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1473,7 +1467,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1481,7 +1475,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1489,7 +1483,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1497,7 +1491,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1505,7 +1499,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1513,82 +1507,76 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="8"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -1596,10 +1584,10 @@
         <v>33</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -1607,73 +1595,73 @@
         <v>34</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
